--- a/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
+++ b/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\fuels\MPIiFP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\fuels\MPIiFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50112C-0C81-40EC-9273-BAE882B8AE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41340" yWindow="5730" windowWidth="21480" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,6 +30,9 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>none needed for U.S.</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -103,6 +105,9 @@
     <t>may increase in response to policies.</t>
   </si>
   <si>
+    <t>For the U.S., we do not wish to impose a cap,</t>
+  </si>
+  <si>
     <t>so we pick an arbitrarily high percentage.</t>
   </si>
   <si>
@@ -116,18 +121,12 @@
   </si>
   <si>
     <t>technically recoverable oil deposits.</t>
-  </si>
-  <si>
-    <t>none needed for EU</t>
-  </si>
-  <si>
-    <t>For the EU, we do not wish to impose a cap,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,61 +465,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -538,14 +535,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.73046875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3">
         <v>2017</v>
@@ -650,9 +647,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -757,9 +754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>999</v>
@@ -864,9 +861,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>999</v>
@@ -971,9 +968,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>999</v>
@@ -1078,9 +1075,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -1185,9 +1182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -1292,9 +1289,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -1399,9 +1396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>999</v>
@@ -1506,9 +1503,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>999</v>
@@ -1613,9 +1610,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>999</v>
@@ -1720,9 +1717,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>999</v>
@@ -1827,9 +1824,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>999</v>
@@ -1934,9 +1931,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>999</v>
@@ -2041,9 +2038,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -2148,9 +2145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -2255,9 +2252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>999</v>
@@ -2362,9 +2359,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>999</v>
@@ -2469,9 +2466,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>999</v>
@@ -2576,9 +2573,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>999</v>
@@ -2683,9 +2680,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>999</v>
@@ -2790,9 +2787,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>999</v>
